--- a/Code/Results/Cases/Case_3_208/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_208/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9861605386250784</v>
+        <v>1.030226741290073</v>
       </c>
       <c r="D2">
-        <v>1.007389425034842</v>
+        <v>1.033412852184459</v>
       </c>
       <c r="E2">
-        <v>0.9939972962951289</v>
+        <v>1.029905282718969</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040266454967038</v>
+        <v>1.031716128618642</v>
       </c>
       <c r="J2">
-        <v>1.008763214670116</v>
+        <v>1.035369154157195</v>
       </c>
       <c r="K2">
-        <v>1.018746764481363</v>
+        <v>1.036215274259204</v>
       </c>
       <c r="L2">
-        <v>1.005540896666365</v>
+        <v>1.0327178385106</v>
       </c>
       <c r="N2">
-        <v>1.010195774141705</v>
+        <v>1.036839497114612</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9942870237222461</v>
+        <v>1.031775028515915</v>
       </c>
       <c r="D3">
-        <v>1.013615758930399</v>
+        <v>1.034589960293003</v>
       </c>
       <c r="E3">
-        <v>1.000769133910431</v>
+        <v>1.03123895177173</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042925710608658</v>
+        <v>1.032092953585462</v>
       </c>
       <c r="J3">
-        <v>1.01493465117525</v>
+        <v>1.036555751098005</v>
       </c>
       <c r="K3">
-        <v>1.024077338047282</v>
+        <v>1.037200374786341</v>
       </c>
       <c r="L3">
-        <v>1.011392182975098</v>
+        <v>1.033858338331424</v>
       </c>
       <c r="N3">
-        <v>1.01637597479455</v>
+        <v>1.038027779159171</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9993688080234188</v>
+        <v>1.032774568074945</v>
       </c>
       <c r="D4">
-        <v>1.017510170760902</v>
+        <v>1.035349297015272</v>
       </c>
       <c r="E4">
-        <v>1.005010280676006</v>
+        <v>1.03210015501105</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044571244169179</v>
+        <v>1.032334012074049</v>
       </c>
       <c r="J4">
-        <v>1.01878867354886</v>
+        <v>1.03732093072665</v>
       </c>
       <c r="K4">
-        <v>1.027401758821882</v>
+        <v>1.037834908388872</v>
       </c>
       <c r="L4">
-        <v>1.015048609813458</v>
+        <v>1.03459402218868</v>
       </c>
       <c r="N4">
-        <v>1.020235470321994</v>
+        <v>1.038794045430656</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001465504333112</v>
+        <v>1.03319423222559</v>
       </c>
       <c r="D5">
-        <v>1.019117029696168</v>
+        <v>1.035667970444238</v>
       </c>
       <c r="E5">
-        <v>1.006761581604647</v>
+        <v>1.03246178866055</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045245912878503</v>
+        <v>1.032434691966151</v>
       </c>
       <c r="J5">
-        <v>1.020377476399897</v>
+        <v>1.037641990321572</v>
       </c>
       <c r="K5">
-        <v>1.028771119987397</v>
+        <v>1.038100979742855</v>
       </c>
       <c r="L5">
-        <v>1.016556509160928</v>
+        <v>1.034902760959787</v>
       </c>
       <c r="N5">
-        <v>1.021826529455317</v>
+        <v>1.039115560967029</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001815292455179</v>
+        <v>1.033264664164893</v>
       </c>
       <c r="D6">
-        <v>1.019385098701196</v>
+        <v>1.035721444943397</v>
       </c>
       <c r="E6">
-        <v>1.007053829955786</v>
+        <v>1.03252248435277</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045358213372901</v>
+        <v>1.032451557871977</v>
       </c>
       <c r="J6">
-        <v>1.020642452987398</v>
+        <v>1.037695861378855</v>
       </c>
       <c r="K6">
-        <v>1.028999431880766</v>
+        <v>1.038145614201886</v>
       </c>
       <c r="L6">
-        <v>1.01680802532002</v>
+        <v>1.034954567931677</v>
       </c>
       <c r="N6">
-        <v>1.022091882339966</v>
+        <v>1.039169508527392</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9993969768773142</v>
+        <v>1.032780177765127</v>
       </c>
       <c r="D7">
-        <v>1.017531758651992</v>
+        <v>1.035353557304281</v>
       </c>
       <c r="E7">
-        <v>1.005033803604471</v>
+        <v>1.032104988802436</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044580325260982</v>
+        <v>1.03233535995761</v>
       </c>
       <c r="J7">
-        <v>1.018810024293192</v>
+        <v>1.037325223174315</v>
       </c>
       <c r="K7">
-        <v>1.027420165124359</v>
+        <v>1.037838466336867</v>
       </c>
       <c r="L7">
-        <v>1.015068871166137</v>
+        <v>1.034598149694148</v>
       </c>
       <c r="N7">
-        <v>1.020256851386832</v>
+        <v>1.038798343974089</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.988945128861744</v>
+        <v>1.030750475522451</v>
       </c>
       <c r="D8">
-        <v>1.009522641338441</v>
+        <v>1.033811147828481</v>
       </c>
       <c r="E8">
-        <v>0.9963162677528522</v>
+        <v>1.030356373407867</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041181290295354</v>
+        <v>1.031844054034412</v>
       </c>
       <c r="J8">
-        <v>1.010878942763025</v>
+        <v>1.035770718641579</v>
       </c>
       <c r="K8">
-        <v>1.020575149080146</v>
+        <v>1.036548796007329</v>
       </c>
       <c r="L8">
-        <v>1.007546369833733</v>
+        <v>1.033103755290148</v>
       </c>
       <c r="N8">
-        <v>1.012314506811184</v>
+        <v>1.037241631866612</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9690437284708434</v>
+        <v>1.027155782371458</v>
       </c>
       <c r="D9">
-        <v>0.9942871587816283</v>
+        <v>1.031075088202338</v>
       </c>
       <c r="E9">
-        <v>0.9797760761004237</v>
+        <v>1.027261196589756</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034571145673794</v>
+        <v>1.030956956805027</v>
       </c>
       <c r="J9">
-        <v>0.9957390707587684</v>
+        <v>1.033011030626097</v>
       </c>
       <c r="K9">
-        <v>1.007473607883186</v>
+        <v>1.03425381581958</v>
       </c>
       <c r="L9">
-        <v>0.9932060219819232</v>
+        <v>1.030452547496526</v>
       </c>
       <c r="N9">
-        <v>0.9971531344521137</v>
+        <v>1.034478024777608</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9545664785366282</v>
+        <v>1.024746534676024</v>
       </c>
       <c r="D10">
-        <v>0.9832265236993855</v>
+        <v>1.029238451427729</v>
       </c>
       <c r="E10">
-        <v>0.9677938675502138</v>
+        <v>1.025187927933811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02967506858888</v>
+        <v>1.030351031747408</v>
       </c>
       <c r="J10">
-        <v>0.984706324688006</v>
+        <v>1.031157028538979</v>
       </c>
       <c r="K10">
-        <v>0.9979053797287294</v>
+        <v>1.032708383452025</v>
       </c>
       <c r="L10">
-        <v>0.9827700235785597</v>
+        <v>1.028672606827912</v>
       </c>
       <c r="N10">
-        <v>0.9861047206164573</v>
+        <v>1.032621389794869</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9479531743626598</v>
+        <v>1.023700132845546</v>
       </c>
       <c r="D11">
-        <v>0.9781825389088245</v>
+        <v>1.028440088702525</v>
       </c>
       <c r="E11">
-        <v>0.9623347731563768</v>
+        <v>1.024287744137892</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027419469658206</v>
+        <v>1.030085175253051</v>
       </c>
       <c r="J11">
-        <v>0.9796637435503204</v>
+        <v>1.030350751470098</v>
       </c>
       <c r="K11">
-        <v>0.9935279725801603</v>
+        <v>1.032035446240189</v>
       </c>
       <c r="L11">
-        <v>0.978003760465108</v>
+        <v>1.027898817046721</v>
       </c>
       <c r="N11">
-        <v>0.9810549784351639</v>
+        <v>1.031813967720068</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9454390614810158</v>
+        <v>1.023310962568387</v>
       </c>
       <c r="D12">
-        <v>0.9762666307257976</v>
+        <v>1.028143069508344</v>
       </c>
       <c r="E12">
-        <v>0.9602618746299741</v>
+        <v>1.023952999172307</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026559294263128</v>
+        <v>1.029985897008691</v>
       </c>
       <c r="J12">
-        <v>0.9777465251737514</v>
+        <v>1.030050732130064</v>
       </c>
       <c r="K12">
-        <v>0.9918631013277612</v>
+        <v>1.031784915874315</v>
       </c>
       <c r="L12">
-        <v>0.9761921589304494</v>
+        <v>1.027610928198857</v>
       </c>
       <c r="N12">
-        <v>0.9791350373885921</v>
+        <v>1.031513522318159</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9459810601892322</v>
+        <v>1.023394463284066</v>
       </c>
       <c r="D13">
-        <v>0.9766795886212225</v>
+        <v>1.028206802609395</v>
       </c>
       <c r="E13">
-        <v>0.9607086411237595</v>
+        <v>1.024024820297412</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026744851197789</v>
+        <v>1.030007216446351</v>
       </c>
       <c r="J13">
-        <v>0.9781598511310838</v>
+        <v>1.030115111523073</v>
       </c>
       <c r="K13">
-        <v>0.9922220484977897</v>
+        <v>1.031838681470702</v>
       </c>
       <c r="L13">
-        <v>0.9765826897228339</v>
+        <v>1.027672702690045</v>
       </c>
       <c r="N13">
-        <v>0.9795489503161927</v>
+        <v>1.031577993137291</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9477465701546451</v>
+        <v>1.023667973975892</v>
       </c>
       <c r="D14">
-        <v>0.9780250591798457</v>
+        <v>1.028415546672843</v>
       </c>
       <c r="E14">
-        <v>0.9621643761481062</v>
+        <v>1.024260081751877</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027348835695255</v>
+        <v>1.03007697965928</v>
       </c>
       <c r="J14">
-        <v>0.9795061943581297</v>
+        <v>1.030325962685809</v>
       </c>
       <c r="K14">
-        <v>0.9933911710446434</v>
+        <v>1.032014749024051</v>
       </c>
       <c r="L14">
-        <v>0.977854878968894</v>
+        <v>1.027875029679511</v>
       </c>
       <c r="N14">
-        <v>0.980897205505049</v>
+        <v>1.031789143732863</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9488265297947628</v>
+        <v>1.023836427642071</v>
       </c>
       <c r="D15">
-        <v>0.97884830322393</v>
+        <v>1.028544098031022</v>
       </c>
       <c r="E15">
-        <v>0.9630551740476186</v>
+        <v>1.024404983911852</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027717944977637</v>
+        <v>1.030119893100763</v>
       </c>
       <c r="J15">
-        <v>0.9803297258216519</v>
+        <v>1.030455804261363</v>
       </c>
       <c r="K15">
-        <v>0.994106229544261</v>
+        <v>1.032123154099202</v>
       </c>
       <c r="L15">
-        <v>0.978633126010678</v>
+        <v>1.027999627627299</v>
       </c>
       <c r="N15">
-        <v>0.98172190647771</v>
+        <v>1.031919169698347</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9549976422270441</v>
+        <v>1.024815912860513</v>
       </c>
       <c r="D16">
-        <v>0.98355557639192</v>
+        <v>1.029291370417966</v>
       </c>
       <c r="E16">
-        <v>0.968150099682424</v>
+        <v>1.025247617865366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029821747120906</v>
+        <v>1.030368602009631</v>
       </c>
       <c r="J16">
-        <v>0.9850350408461046</v>
+        <v>1.031210464365005</v>
       </c>
       <c r="K16">
-        <v>0.9981906540661253</v>
+        <v>1.03275296433902</v>
       </c>
       <c r="L16">
-        <v>0.9830808024945275</v>
+        <v>1.028723895427781</v>
       </c>
       <c r="N16">
-        <v>0.9864339035892044</v>
+        <v>1.032674901505897</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9587725092967047</v>
+        <v>1.025429457776522</v>
       </c>
       <c r="D17">
-        <v>0.9864374527708637</v>
+        <v>1.029759282606088</v>
       </c>
       <c r="E17">
-        <v>0.9712705859392177</v>
+        <v>1.02577551879258</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03110380884763</v>
+        <v>1.03052367457522</v>
       </c>
       <c r="J17">
-        <v>0.9879126833665787</v>
+        <v>1.031682904163796</v>
       </c>
       <c r="K17">
-        <v>1.000687536225162</v>
+        <v>1.033147017195313</v>
       </c>
       <c r="L17">
-        <v>0.9858018220898956</v>
+        <v>1.029177383208201</v>
       </c>
       <c r="N17">
-        <v>0.9893156326921279</v>
+        <v>1.033148012223392</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9609415228362422</v>
+        <v>1.025787021979408</v>
       </c>
       <c r="D18">
-        <v>0.9880941391878585</v>
+        <v>1.030031910573024</v>
       </c>
       <c r="E18">
-        <v>0.9730649289237131</v>
+        <v>1.026083199220714</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031838682426225</v>
+        <v>1.030613789573994</v>
       </c>
       <c r="J18">
-        <v>0.989565887973371</v>
+        <v>1.031958134964244</v>
       </c>
       <c r="K18">
-        <v>1.002121597448686</v>
+        <v>1.033376499781454</v>
       </c>
       <c r="L18">
-        <v>0.9873653787248859</v>
+        <v>1.029441599937607</v>
       </c>
       <c r="N18">
-        <v>0.9909711850390871</v>
+        <v>1.033423633883146</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.961675699939268</v>
+        <v>1.025908890563228</v>
       </c>
       <c r="D19">
-        <v>0.988655025006419</v>
+        <v>1.030124819477024</v>
       </c>
       <c r="E19">
-        <v>0.9736725049111398</v>
+        <v>1.026188070673161</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032087117133624</v>
+        <v>1.030644459536498</v>
       </c>
       <c r="J19">
-        <v>0.9901254211437446</v>
+        <v>1.032051924945977</v>
       </c>
       <c r="K19">
-        <v>1.002606891408531</v>
+        <v>1.033454686271623</v>
       </c>
       <c r="L19">
-        <v>0.9878946258998663</v>
+        <v>1.029531641231789</v>
       </c>
       <c r="N19">
-        <v>0.9915315128107419</v>
+        <v>1.033517557057411</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9583709341646153</v>
+        <v>1.025363661968792</v>
       </c>
       <c r="D20">
-        <v>0.9861307919038698</v>
+        <v>1.029709110864879</v>
       </c>
       <c r="E20">
-        <v>0.9709384843622372</v>
+        <v>1.025718904419673</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03096760662683</v>
+        <v>1.030507071556604</v>
       </c>
       <c r="J20">
-        <v>0.9876065829710512</v>
+        <v>1.031632250595618</v>
       </c>
       <c r="K20">
-        <v>1.000421978823345</v>
+        <v>1.033104776527076</v>
       </c>
       <c r="L20">
-        <v>0.9855123473064316</v>
+        <v>1.029128758838539</v>
       </c>
       <c r="N20">
-        <v>0.9890090975989286</v>
+        <v>1.033097286721337</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.947228314494695</v>
+        <v>1.023587445519162</v>
       </c>
       <c r="D21">
-        <v>0.9776300567313821</v>
+        <v>1.028354089835456</v>
       </c>
       <c r="E21">
-        <v>0.961736984293744</v>
+        <v>1.024190813589252</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027171611625772</v>
+        <v>1.030056450715858</v>
       </c>
       <c r="J21">
-        <v>0.9791109875407268</v>
+        <v>1.0302638870362</v>
       </c>
       <c r="K21">
-        <v>0.9930480003614508</v>
+        <v>1.031962917354706</v>
       </c>
       <c r="L21">
-        <v>0.977481423838107</v>
+        <v>1.027815462436439</v>
       </c>
       <c r="N21">
-        <v>0.9805014374486346</v>
+        <v>1.031726979928711</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9398853843080099</v>
+        <v>1.022467826431985</v>
       </c>
       <c r="D22">
-        <v>0.9720377672468961</v>
+        <v>1.027499401031799</v>
       </c>
       <c r="E22">
-        <v>0.9556876531356024</v>
+        <v>1.023227858522405</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024654410747946</v>
+        <v>1.029770074950453</v>
       </c>
       <c r="J22">
-        <v>0.9735111857836524</v>
+        <v>1.029400459236897</v>
       </c>
       <c r="K22">
-        <v>0.9881842862837918</v>
+        <v>1.031241674784861</v>
       </c>
       <c r="L22">
-        <v>0.9721912010362271</v>
+        <v>1.026987023811182</v>
       </c>
       <c r="N22">
-        <v>0.9748936833307589</v>
+        <v>1.030862325962897</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9438121887670604</v>
+        <v>1.023061631066566</v>
       </c>
       <c r="D23">
-        <v>0.9750273528966257</v>
+        <v>1.02795274950535</v>
       </c>
       <c r="E23">
-        <v>0.9589212308491566</v>
+        <v>1.023738549350206</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026001943971163</v>
+        <v>1.029922178666514</v>
       </c>
       <c r="J23">
-        <v>0.9765058603520534</v>
+        <v>1.029858473948305</v>
       </c>
       <c r="K23">
-        <v>0.9907855879593521</v>
+        <v>1.031624335399298</v>
       </c>
       <c r="L23">
-        <v>0.9750200014486607</v>
+        <v>1.027426455233388</v>
       </c>
       <c r="N23">
-        <v>0.9778926106805411</v>
+        <v>1.03132099110773</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.958552489618138</v>
+        <v>1.025393393208265</v>
       </c>
       <c r="D24">
-        <v>0.9862694334290613</v>
+        <v>1.02973178223391</v>
       </c>
       <c r="E24">
-        <v>0.9710886261196137</v>
+        <v>1.025744486744897</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031029190363283</v>
+        <v>1.030514574784977</v>
       </c>
       <c r="J24">
-        <v>0.9877449743546749</v>
+        <v>1.031655139799013</v>
       </c>
       <c r="K24">
-        <v>1.000542041508948</v>
+        <v>1.033123864384824</v>
       </c>
       <c r="L24">
-        <v>0.9856432210360105</v>
+        <v>1.029150731009874</v>
       </c>
       <c r="N24">
-        <v>0.9891476855141905</v>
+        <v>1.033120208430026</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9743846421505269</v>
+        <v>1.028087304642597</v>
       </c>
       <c r="D25">
-        <v>0.9983730476025844</v>
+        <v>1.031784615693305</v>
       </c>
       <c r="E25">
-        <v>0.9842072560427085</v>
+        <v>1.02806306915442</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036360407928682</v>
+        <v>1.031188840549312</v>
       </c>
       <c r="J25">
-        <v>0.9998059229390888</v>
+        <v>1.033726946793717</v>
       </c>
       <c r="K25">
-        <v>1.010996672523294</v>
+        <v>1.034849817890729</v>
       </c>
       <c r="L25">
-        <v>0.9970557833125741</v>
+        <v>1.031140113594051</v>
       </c>
       <c r="N25">
-        <v>1.001225762029005</v>
+        <v>1.035194957628302</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_208/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_208/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030226741290073</v>
+        <v>0.9861605386250794</v>
       </c>
       <c r="D2">
-        <v>1.033412852184459</v>
+        <v>1.007389425034843</v>
       </c>
       <c r="E2">
-        <v>1.029905282718969</v>
+        <v>0.99399729629513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031716128618642</v>
+        <v>1.040266454967039</v>
       </c>
       <c r="J2">
-        <v>1.035369154157195</v>
+        <v>1.008763214670117</v>
       </c>
       <c r="K2">
-        <v>1.036215274259204</v>
+        <v>1.018746764481364</v>
       </c>
       <c r="L2">
-        <v>1.0327178385106</v>
+        <v>1.005540896666367</v>
       </c>
       <c r="N2">
-        <v>1.036839497114612</v>
+        <v>1.010195774141707</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031775028515915</v>
+        <v>0.994287023722245</v>
       </c>
       <c r="D3">
-        <v>1.034589960293003</v>
+        <v>1.013615758930398</v>
       </c>
       <c r="E3">
-        <v>1.03123895177173</v>
+        <v>1.00076913391043</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032092953585462</v>
+        <v>1.042925710608657</v>
       </c>
       <c r="J3">
-        <v>1.036555751098005</v>
+        <v>1.014934651175249</v>
       </c>
       <c r="K3">
-        <v>1.037200374786341</v>
+        <v>1.024077338047281</v>
       </c>
       <c r="L3">
-        <v>1.033858338331424</v>
+        <v>1.011392182975097</v>
       </c>
       <c r="N3">
-        <v>1.038027779159171</v>
+        <v>1.016375974794549</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032774568074945</v>
+        <v>0.9993688080234195</v>
       </c>
       <c r="D4">
-        <v>1.035349297015272</v>
+        <v>1.017510170760903</v>
       </c>
       <c r="E4">
-        <v>1.03210015501105</v>
+        <v>1.005010280676006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032334012074049</v>
+        <v>1.044571244169179</v>
       </c>
       <c r="J4">
-        <v>1.03732093072665</v>
+        <v>1.018788673548861</v>
       </c>
       <c r="K4">
-        <v>1.037834908388872</v>
+        <v>1.027401758821882</v>
       </c>
       <c r="L4">
-        <v>1.03459402218868</v>
+        <v>1.015048609813458</v>
       </c>
       <c r="N4">
-        <v>1.038794045430656</v>
+        <v>1.020235470321994</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03319423222559</v>
+        <v>1.001465504333113</v>
       </c>
       <c r="D5">
-        <v>1.035667970444238</v>
+        <v>1.019117029696168</v>
       </c>
       <c r="E5">
-        <v>1.03246178866055</v>
+        <v>1.006761581604647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032434691966151</v>
+        <v>1.045245912878503</v>
       </c>
       <c r="J5">
-        <v>1.037641990321572</v>
+        <v>1.020377476399898</v>
       </c>
       <c r="K5">
-        <v>1.038100979742855</v>
+        <v>1.028771119987398</v>
       </c>
       <c r="L5">
-        <v>1.034902760959787</v>
+        <v>1.016556509160929</v>
       </c>
       <c r="N5">
-        <v>1.039115560967029</v>
+        <v>1.021826529455318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033264664164893</v>
+        <v>1.001815292455178</v>
       </c>
       <c r="D6">
-        <v>1.035721444943397</v>
+        <v>1.019385098701195</v>
       </c>
       <c r="E6">
-        <v>1.03252248435277</v>
+        <v>1.007053829955785</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032451557871977</v>
+        <v>1.0453582133729</v>
       </c>
       <c r="J6">
-        <v>1.037695861378855</v>
+        <v>1.020642452987398</v>
       </c>
       <c r="K6">
-        <v>1.038145614201886</v>
+        <v>1.028999431880766</v>
       </c>
       <c r="L6">
-        <v>1.034954567931677</v>
+        <v>1.01680802532002</v>
       </c>
       <c r="N6">
-        <v>1.039169508527392</v>
+        <v>1.022091882339965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032780177765127</v>
+        <v>0.999396976877314</v>
       </c>
       <c r="D7">
-        <v>1.035353557304281</v>
+        <v>1.017531758651991</v>
       </c>
       <c r="E7">
-        <v>1.032104988802436</v>
+        <v>1.005033803604471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03233535995761</v>
+        <v>1.044580325260982</v>
       </c>
       <c r="J7">
-        <v>1.037325223174315</v>
+        <v>1.018810024293192</v>
       </c>
       <c r="K7">
-        <v>1.037838466336867</v>
+        <v>1.027420165124359</v>
       </c>
       <c r="L7">
-        <v>1.034598149694148</v>
+        <v>1.015068871166137</v>
       </c>
       <c r="N7">
-        <v>1.038798343974089</v>
+        <v>1.020256851386831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030750475522451</v>
+        <v>0.9889451288617449</v>
       </c>
       <c r="D8">
-        <v>1.033811147828481</v>
+        <v>1.009522641338442</v>
       </c>
       <c r="E8">
-        <v>1.030356373407867</v>
+        <v>0.996316267752853</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031844054034412</v>
+        <v>1.041181290295355</v>
       </c>
       <c r="J8">
-        <v>1.035770718641579</v>
+        <v>1.010878942763026</v>
       </c>
       <c r="K8">
-        <v>1.036548796007329</v>
+        <v>1.020575149080146</v>
       </c>
       <c r="L8">
-        <v>1.033103755290148</v>
+        <v>1.007546369833734</v>
       </c>
       <c r="N8">
-        <v>1.037241631866612</v>
+        <v>1.012314506811185</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027155782371458</v>
+        <v>0.9690437284708423</v>
       </c>
       <c r="D9">
-        <v>1.031075088202338</v>
+        <v>0.9942871587816274</v>
       </c>
       <c r="E9">
-        <v>1.027261196589756</v>
+        <v>0.9797760761004226</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030956956805027</v>
+        <v>1.034571145673794</v>
       </c>
       <c r="J9">
-        <v>1.033011030626097</v>
+        <v>0.9957390707587673</v>
       </c>
       <c r="K9">
-        <v>1.03425381581958</v>
+        <v>1.007473607883185</v>
       </c>
       <c r="L9">
-        <v>1.030452547496526</v>
+        <v>0.9932060219819216</v>
       </c>
       <c r="N9">
-        <v>1.034478024777608</v>
+        <v>0.9971531344521128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024746534676024</v>
+        <v>0.9545664785366282</v>
       </c>
       <c r="D10">
-        <v>1.029238451427729</v>
+        <v>0.9832265236993852</v>
       </c>
       <c r="E10">
-        <v>1.025187927933811</v>
+        <v>0.967793867550214</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030351031747408</v>
+        <v>1.02967506858888</v>
       </c>
       <c r="J10">
-        <v>1.031157028538979</v>
+        <v>0.984706324688006</v>
       </c>
       <c r="K10">
-        <v>1.032708383452025</v>
+        <v>0.9979053797287292</v>
       </c>
       <c r="L10">
-        <v>1.028672606827912</v>
+        <v>0.9827700235785598</v>
       </c>
       <c r="N10">
-        <v>1.032621389794869</v>
+        <v>0.986104720616457</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023700132845546</v>
+        <v>0.94795317436266</v>
       </c>
       <c r="D11">
-        <v>1.028440088702525</v>
+        <v>0.9781825389088243</v>
       </c>
       <c r="E11">
-        <v>1.024287744137892</v>
+        <v>0.9623347731563767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030085175253051</v>
+        <v>1.027419469658206</v>
       </c>
       <c r="J11">
-        <v>1.030350751470098</v>
+        <v>0.9796637435503205</v>
       </c>
       <c r="K11">
-        <v>1.032035446240189</v>
+        <v>0.9935279725801605</v>
       </c>
       <c r="L11">
-        <v>1.027898817046721</v>
+        <v>0.9780037604651077</v>
       </c>
       <c r="N11">
-        <v>1.031813967720068</v>
+        <v>0.981054978435164</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023310962568387</v>
+        <v>0.9454390614810172</v>
       </c>
       <c r="D12">
-        <v>1.028143069508344</v>
+        <v>0.9762666307257988</v>
       </c>
       <c r="E12">
-        <v>1.023952999172307</v>
+        <v>0.9602618746299754</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029985897008691</v>
+        <v>1.026559294263129</v>
       </c>
       <c r="J12">
-        <v>1.030050732130064</v>
+        <v>0.9777465251737526</v>
       </c>
       <c r="K12">
-        <v>1.031784915874315</v>
+        <v>0.9918631013277625</v>
       </c>
       <c r="L12">
-        <v>1.027610928198857</v>
+        <v>0.9761921589304505</v>
       </c>
       <c r="N12">
-        <v>1.031513522318159</v>
+        <v>0.9791350373885935</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023394463284066</v>
+        <v>0.9459810601892309</v>
       </c>
       <c r="D13">
-        <v>1.028206802609395</v>
+        <v>0.9766795886212217</v>
       </c>
       <c r="E13">
-        <v>1.024024820297412</v>
+        <v>0.9607086411237584</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030007216446351</v>
+        <v>1.026744851197788</v>
       </c>
       <c r="J13">
-        <v>1.030115111523073</v>
+        <v>0.9781598511310826</v>
       </c>
       <c r="K13">
-        <v>1.031838681470702</v>
+        <v>0.9922220484977888</v>
       </c>
       <c r="L13">
-        <v>1.027672702690045</v>
+        <v>0.9765826897228328</v>
       </c>
       <c r="N13">
-        <v>1.031577993137291</v>
+        <v>0.9795489503161923</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023667973975892</v>
+        <v>0.9477465701546454</v>
       </c>
       <c r="D14">
-        <v>1.028415546672843</v>
+        <v>0.9780250591798458</v>
       </c>
       <c r="E14">
-        <v>1.024260081751877</v>
+        <v>0.9621643761481066</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03007697965928</v>
+        <v>1.027348835695256</v>
       </c>
       <c r="J14">
-        <v>1.030325962685809</v>
+        <v>0.9795061943581299</v>
       </c>
       <c r="K14">
-        <v>1.032014749024051</v>
+        <v>0.9933911710446435</v>
       </c>
       <c r="L14">
-        <v>1.027875029679511</v>
+        <v>0.9778548789688943</v>
       </c>
       <c r="N14">
-        <v>1.031789143732863</v>
+        <v>0.9808972055050492</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023836427642071</v>
+        <v>0.9488265297947629</v>
       </c>
       <c r="D15">
-        <v>1.028544098031022</v>
+        <v>0.9788483032239299</v>
       </c>
       <c r="E15">
-        <v>1.024404983911852</v>
+        <v>0.9630551740476185</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030119893100763</v>
+        <v>1.027717944977637</v>
       </c>
       <c r="J15">
-        <v>1.030455804261363</v>
+        <v>0.980329725821652</v>
       </c>
       <c r="K15">
-        <v>1.032123154099202</v>
+        <v>0.9941062295442609</v>
       </c>
       <c r="L15">
-        <v>1.027999627627299</v>
+        <v>0.9786331260106779</v>
       </c>
       <c r="N15">
-        <v>1.031919169698347</v>
+        <v>0.9817219064777098</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024815912860513</v>
+        <v>0.9549976422270461</v>
       </c>
       <c r="D16">
-        <v>1.029291370417966</v>
+        <v>0.9835555763919216</v>
       </c>
       <c r="E16">
-        <v>1.025247617865366</v>
+        <v>0.9681500996824257</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030368602009631</v>
+        <v>1.029821747120907</v>
       </c>
       <c r="J16">
-        <v>1.031210464365005</v>
+        <v>0.9850350408461064</v>
       </c>
       <c r="K16">
-        <v>1.03275296433902</v>
+        <v>0.9981906540661268</v>
       </c>
       <c r="L16">
-        <v>1.028723895427781</v>
+        <v>0.9830808024945292</v>
       </c>
       <c r="N16">
-        <v>1.032674901505897</v>
+        <v>0.9864339035892061</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025429457776522</v>
+        <v>0.9587725092967068</v>
       </c>
       <c r="D17">
-        <v>1.029759282606088</v>
+        <v>0.9864374527708654</v>
       </c>
       <c r="E17">
-        <v>1.02577551879258</v>
+        <v>0.9712705859392193</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03052367457522</v>
+        <v>1.031103808847631</v>
       </c>
       <c r="J17">
-        <v>1.031682904163796</v>
+        <v>0.9879126833665807</v>
       </c>
       <c r="K17">
-        <v>1.033147017195313</v>
+        <v>1.000687536225164</v>
       </c>
       <c r="L17">
-        <v>1.029177383208201</v>
+        <v>0.9858018220898974</v>
       </c>
       <c r="N17">
-        <v>1.033148012223392</v>
+        <v>0.9893156326921299</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025787021979408</v>
+        <v>0.9609415228362411</v>
       </c>
       <c r="D18">
-        <v>1.030031910573024</v>
+        <v>0.9880941391878576</v>
       </c>
       <c r="E18">
-        <v>1.026083199220714</v>
+        <v>0.973064928923712</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030613789573994</v>
+        <v>1.031838682426224</v>
       </c>
       <c r="J18">
-        <v>1.031958134964244</v>
+        <v>0.98956588797337</v>
       </c>
       <c r="K18">
-        <v>1.033376499781454</v>
+        <v>1.002121597448685</v>
       </c>
       <c r="L18">
-        <v>1.029441599937607</v>
+        <v>0.9873653787248851</v>
       </c>
       <c r="N18">
-        <v>1.033423633883146</v>
+        <v>0.9909711850390859</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025908890563228</v>
+        <v>0.9616756999392664</v>
       </c>
       <c r="D19">
-        <v>1.030124819477024</v>
+        <v>0.9886550250064178</v>
       </c>
       <c r="E19">
-        <v>1.026188070673161</v>
+        <v>0.9736725049111382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030644459536498</v>
+        <v>1.032087117133624</v>
       </c>
       <c r="J19">
-        <v>1.032051924945977</v>
+        <v>0.9901254211437432</v>
       </c>
       <c r="K19">
-        <v>1.033454686271623</v>
+        <v>1.00260689140853</v>
       </c>
       <c r="L19">
-        <v>1.029531641231789</v>
+        <v>0.987894625899865</v>
       </c>
       <c r="N19">
-        <v>1.033517557057411</v>
+        <v>0.9915315128107406</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025363661968792</v>
+        <v>0.9583709341646132</v>
       </c>
       <c r="D20">
-        <v>1.029709110864879</v>
+        <v>0.9861307919038682</v>
       </c>
       <c r="E20">
-        <v>1.025718904419673</v>
+        <v>0.9709384843622353</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030507071556604</v>
+        <v>1.030967606626829</v>
       </c>
       <c r="J20">
-        <v>1.031632250595618</v>
+        <v>0.9876065829710493</v>
       </c>
       <c r="K20">
-        <v>1.033104776527076</v>
+        <v>1.000421978823343</v>
       </c>
       <c r="L20">
-        <v>1.029128758838539</v>
+        <v>0.9855123473064297</v>
       </c>
       <c r="N20">
-        <v>1.033097286721337</v>
+        <v>0.9890090975989266</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023587445519162</v>
+        <v>0.9472283144946945</v>
       </c>
       <c r="D21">
-        <v>1.028354089835456</v>
+        <v>0.9776300567313818</v>
       </c>
       <c r="E21">
-        <v>1.024190813589252</v>
+        <v>0.9617369842937435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030056450715858</v>
+        <v>1.027171611625772</v>
       </c>
       <c r="J21">
-        <v>1.0302638870362</v>
+        <v>0.9791109875407265</v>
       </c>
       <c r="K21">
-        <v>1.031962917354706</v>
+        <v>0.9930480003614504</v>
       </c>
       <c r="L21">
-        <v>1.027815462436439</v>
+        <v>0.9774814238381065</v>
       </c>
       <c r="N21">
-        <v>1.031726979928711</v>
+        <v>0.9805014374486341</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022467826431985</v>
+        <v>0.9398853843080076</v>
       </c>
       <c r="D22">
-        <v>1.027499401031799</v>
+        <v>0.9720377672468938</v>
       </c>
       <c r="E22">
-        <v>1.023227858522405</v>
+        <v>0.9556876531356002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029770074950453</v>
+        <v>1.024654410747944</v>
       </c>
       <c r="J22">
-        <v>1.029400459236897</v>
+        <v>0.9735111857836501</v>
       </c>
       <c r="K22">
-        <v>1.031241674784861</v>
+        <v>0.9881842862837897</v>
       </c>
       <c r="L22">
-        <v>1.026987023811182</v>
+        <v>0.9721912010362249</v>
       </c>
       <c r="N22">
-        <v>1.030862325962897</v>
+        <v>0.9748936833307568</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023061631066566</v>
+        <v>0.9438121887670597</v>
       </c>
       <c r="D23">
-        <v>1.02795274950535</v>
+        <v>0.9750273528966248</v>
       </c>
       <c r="E23">
-        <v>1.023738549350206</v>
+        <v>0.9589212308491555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029922178666514</v>
+        <v>1.026001943971162</v>
       </c>
       <c r="J23">
-        <v>1.029858473948305</v>
+        <v>0.9765058603520528</v>
       </c>
       <c r="K23">
-        <v>1.031624335399298</v>
+        <v>0.9907855879593511</v>
       </c>
       <c r="L23">
-        <v>1.027426455233388</v>
+        <v>0.9750200014486596</v>
       </c>
       <c r="N23">
-        <v>1.03132099110773</v>
+        <v>0.9778926106805405</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025393393208265</v>
+        <v>0.9585524896181382</v>
       </c>
       <c r="D24">
-        <v>1.02973178223391</v>
+        <v>0.9862694334290616</v>
       </c>
       <c r="E24">
-        <v>1.025744486744897</v>
+        <v>0.9710886261196142</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030514574784977</v>
+        <v>1.031029190363284</v>
       </c>
       <c r="J24">
-        <v>1.031655139799013</v>
+        <v>0.987744974354675</v>
       </c>
       <c r="K24">
-        <v>1.033123864384824</v>
+        <v>1.000542041508949</v>
       </c>
       <c r="L24">
-        <v>1.029150731009874</v>
+        <v>0.9856432210360111</v>
       </c>
       <c r="N24">
-        <v>1.033120208430026</v>
+        <v>0.989147685514191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028087304642597</v>
+        <v>0.9743846421505272</v>
       </c>
       <c r="D25">
-        <v>1.031784615693305</v>
+        <v>0.9983730476025847</v>
       </c>
       <c r="E25">
-        <v>1.02806306915442</v>
+        <v>0.9842072560427088</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031188840549312</v>
+        <v>1.036360407928683</v>
       </c>
       <c r="J25">
-        <v>1.033726946793717</v>
+        <v>0.9998059229390893</v>
       </c>
       <c r="K25">
-        <v>1.034849817890729</v>
+        <v>1.010996672523295</v>
       </c>
       <c r="L25">
-        <v>1.031140113594051</v>
+        <v>0.9970557833125742</v>
       </c>
       <c r="N25">
-        <v>1.035194957628302</v>
+        <v>1.001225762029005</v>
       </c>
     </row>
   </sheetData>
